--- a/docs/Team01Report-Sprint3.xlsx
+++ b/docs/Team01Report-Sprint3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -34,10 +34,136 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Team</t>
+    </r>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Backlog</t>
+    </r>
+  </si>
+  <si>
+    <t>Burndown README</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Burndown README</t>
+    </r>
+  </si>
+  <si>
+    <t>Burndown</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Burndown</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sprint1</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sprint2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sprint3</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sprint4</t>
+    </r>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Stories</t>
+    </r>
   </si>
   <si>
     <t>Initials</t>
@@ -117,9 +243,6 @@
     </r>
   </si>
   <si>
-    <t>Backlog</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -210,309 +333,294 @@
     <t>Birth before death of parents</t>
   </si>
   <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>Store Marriage Date</t>
+  </si>
+  <si>
+    <t>Store Divorce date</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>Store age</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Store IDs</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>Store dates</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>Retrieve Marriage Date</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>Retrieve Divorce date</t>
+  </si>
+  <si>
+    <t>T025.01</t>
+  </si>
+  <si>
+    <t>Get Each family</t>
+  </si>
+  <si>
+    <t>T025.02</t>
+  </si>
+  <si>
+    <t>Check each member name</t>
+  </si>
+  <si>
+    <t>T027.01</t>
+  </si>
+  <si>
+    <t>Get Each Individual</t>
+  </si>
+  <si>
+    <t>T027.02</t>
+  </si>
+  <si>
+    <t>Check Each Individual age</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>T08.01</t>
+  </si>
+  <si>
+    <t>Get Each Individual that is a child</t>
+  </si>
+  <si>
+    <t>T08.02</t>
+  </si>
+  <si>
+    <t>Check each parent marriage date before birth</t>
+  </si>
+  <si>
+    <t>T09.01</t>
+  </si>
+  <si>
+    <t>T09.02</t>
+  </si>
+  <si>
+    <t>Check birth before parents death</t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>Check gender for each role</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>CODING</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
     <t>US06</t>
   </si>
   <si>
     <t>Divorce before death</t>
   </si>
   <si>
-    <t>Burndown README</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Burndown</t>
-  </si>
-  <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>Store Marriage Date</t>
-  </si>
-  <si>
-    <t>Store Divorce date</t>
-  </si>
-  <si>
-    <t>T10.01</t>
-  </si>
-  <si>
-    <t>Store age</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Store IDs</t>
-  </si>
-  <si>
-    <t>Compare</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>Store dates</t>
-  </si>
-  <si>
-    <t>Validate</t>
-  </si>
-  <si>
-    <t>Sprint2</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>Retrieve Marriage Date</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>Retrieve Divorce date</t>
-  </si>
-  <si>
-    <t>T025.01</t>
-  </si>
-  <si>
-    <t>Get Each family</t>
-  </si>
-  <si>
-    <t>T025.02</t>
-  </si>
-  <si>
-    <t>Check each member name</t>
-  </si>
-  <si>
-    <t>T027.01</t>
-  </si>
-  <si>
-    <t>Get Each Individual</t>
-  </si>
-  <si>
-    <t>T027.02</t>
-  </si>
-  <si>
-    <t>Check Each Individual age</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>T08.01</t>
-  </si>
-  <si>
-    <t>Get Each Individual that is a child</t>
-  </si>
-  <si>
-    <t>T08.02</t>
-  </si>
-  <si>
-    <t>Check each parent marriage date before birth</t>
-  </si>
-  <si>
-    <t>T09.01</t>
-  </si>
-  <si>
-    <t>T09.02</t>
-  </si>
-  <si>
-    <t>Check birth before parents death</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>Check divorce before death</t>
-  </si>
-  <si>
-    <t>Sprint3</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>CODING</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>VK</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>Sprint4</t>
-  </si>
-  <si>
-    <t>Stories</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
     <t>Divorce can only occur before death of both spouses</t>
   </si>
   <si>
@@ -616,12 +724,6 @@
   </si>
   <si>
     <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
   </si>
   <si>
     <t>Husband in family should be male and wife in family should be female</t>
@@ -811,7 +913,7 @@
     <font>
       <sz val="18"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="11"/>
@@ -824,7 +926,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,13 +957,112 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -908,13 +1109,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -955,7 +1149,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -977,91 +1171,130 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1073,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,6 +1331,8 @@
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ffd6e3bc"/>
       <rgbColor rgb="ff878787"/>
       <rgbColor rgb="ff4a7dbb"/>
@@ -1118,10 +1353,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0831987"/>
-          <c:y val="0.0573934"/>
-          <c:w val="0.911801"/>
-          <c:h val="0.858365"/>
+          <c:x val="0.0833081"/>
+          <c:y val="0.0581198"/>
+          <c:w val="0.911692"/>
+          <c:h val="0.85673"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1148,7 +1383,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1164,7 +1399,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1190,7 +1425,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown README'!$B$15:$B$20</c:f>
+              <c:f>'Burndown'!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1216,7 +1451,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown README'!$C$15:$C$20</c:f>
+              <c:f>'Burndown'!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1250,7 +1485,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1372,10 +1607,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0632437"/>
-          <c:y val="0.0573934"/>
-          <c:w val="0.931756"/>
-          <c:h val="0.858365"/>
+          <c:x val="0.0633159"/>
+          <c:y val="0.0581199"/>
+          <c:w val="0.931684"/>
+          <c:h val="0.85673"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1402,7 +1637,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1418,7 +1653,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1444,7 +1679,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown'!$A$2:$A$7</c:f>
+              <c:f>'Sprint1'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1470,7 +1705,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>'Sprint1'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1498,7 +1733,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1619,9 +1854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>249979</xdr:colOff>
+      <xdr:colOff>243872</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>43009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1630,7 +1865,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="768821" y="3573991"/>
-        <a:ext cx="4650059" cy="2655361"/>
+        <a:ext cx="4643952" cy="2622169"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1643,15 +1878,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>450002</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>39469</xdr:rowOff>
+      <xdr:colOff>430952</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1134993</xdr:colOff>
+      <xdr:colOff>1154044</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>118647</xdr:rowOff>
+      <xdr:rowOff>33537</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1660,10 +1895,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1275502" y="1334869"/>
-          <a:ext cx="1408892" cy="1212654"/>
+          <a:off x="1256452" y="1177116"/>
+          <a:ext cx="1446993" cy="1285297"/>
           <a:chOff x="0" y="-68770"/>
-          <a:chExt cx="1370791" cy="1054480"/>
+          <a:chExt cx="1408892" cy="1117649"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1673,8 +1908,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1370792" cy="843297"/>
+            <a:off x="0" y="79086"/>
+            <a:ext cx="1408893" cy="969794"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -1770,8 +2005,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="26670" y="-68771"/>
-            <a:ext cx="1149774" cy="1054482"/>
+            <a:off x="8361" y="-68771"/>
+            <a:ext cx="1219832" cy="1054480"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1789,7 +2024,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -1893,15 +2128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>94400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>40690</xdr:rowOff>
+      <xdr:colOff>75349</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>93972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>518582</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63449</xdr:rowOff>
+      <xdr:colOff>537633</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62914</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1910,10 +2145,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5263300" y="1336090"/>
-          <a:ext cx="1262383" cy="994310"/>
-          <a:chOff x="0" y="-56388"/>
-          <a:chExt cx="1224282" cy="864616"/>
+          <a:off x="5244249" y="1227447"/>
+          <a:ext cx="1300485" cy="940493"/>
+          <a:chOff x="0" y="-44005"/>
+          <a:chExt cx="1262383" cy="817819"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1923,8 +2158,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1224283" cy="616493"/>
+            <a:off x="0" y="64846"/>
+            <a:ext cx="1262384" cy="708968"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2020,8 +2255,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="26669" y="-56388"/>
-            <a:ext cx="1170944" cy="864616"/>
+            <a:off x="8448" y="-44006"/>
+            <a:ext cx="1245485" cy="674750"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2039,7 +2274,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2091,16 +2326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13970</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>32242</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1201420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>137583</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>103493</xdr:rowOff>
+      <xdr:colOff>156635</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19778</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2109,10 +2344,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2769870" y="1165717"/>
-          <a:ext cx="1063414" cy="1042802"/>
-          <a:chOff x="0" y="-56387"/>
-          <a:chExt cx="1025312" cy="906784"/>
+          <a:off x="2750820" y="1022659"/>
+          <a:ext cx="1101516" cy="1264070"/>
+          <a:chOff x="0" y="-56389"/>
+          <a:chExt cx="1063415" cy="1099189"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2122,8 +2357,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1025314" cy="850397"/>
+            <a:off x="0" y="64845"/>
+            <a:ext cx="1063416" cy="977956"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2219,8 +2454,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="26669" y="-56388"/>
-            <a:ext cx="971974" cy="864617"/>
+            <a:off x="8610" y="-56390"/>
+            <a:ext cx="1046193" cy="864615"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2238,7 +2473,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2291,15 +2526,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134619</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4542</xdr:rowOff>
+      <xdr:colOff>115568</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5079</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83720</xdr:rowOff>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67987</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2308,10 +2543,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3830319" y="1461867"/>
-          <a:ext cx="391161" cy="1212654"/>
-          <a:chOff x="0" y="-68770"/>
-          <a:chExt cx="355600" cy="1054480"/>
+          <a:off x="3811268" y="1340631"/>
+          <a:ext cx="429263" cy="994307"/>
+          <a:chOff x="0" y="-56387"/>
+          <a:chExt cx="391161" cy="864613"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2321,8 +2556,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="355601" cy="473959"/>
+            <a:off x="0" y="79086"/>
+            <a:ext cx="391162" cy="545055"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2418,8 +2653,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="32511" y="-68771"/>
-            <a:ext cx="290578" cy="1054482"/>
+            <a:off x="19780" y="-56388"/>
+            <a:ext cx="351600" cy="864614"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2437,7 +2672,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2540,16 +2775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>45955</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>167216</xdr:colOff>
+      <xdr:colOff>186267</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>20855</xdr:rowOff>
+      <xdr:rowOff>103984</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2558,10 +2793,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4217670" y="1179430"/>
-          <a:ext cx="1118447" cy="1108376"/>
-          <a:chOff x="0" y="-56388"/>
-          <a:chExt cx="1080345" cy="963804"/>
+          <a:off x="4198620" y="1031455"/>
+          <a:ext cx="1156548" cy="1339480"/>
+          <a:chOff x="0" y="-56387"/>
+          <a:chExt cx="1118447" cy="1164763"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2571,8 +2806,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1080346" cy="907417"/>
+            <a:off x="-1" y="64846"/>
+            <a:ext cx="1118449" cy="1043531"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2668,8 +2903,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="26669" y="-56388"/>
-            <a:ext cx="1027007" cy="864617"/>
+            <a:off x="8559" y="-56388"/>
+            <a:ext cx="1101328" cy="864614"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2687,7 +2922,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2740,15 +2975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>225892</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>44136</xdr:rowOff>
+      <xdr:colOff>206842</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>645579</xdr:colOff>
+      <xdr:colOff>664631</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>79025</xdr:rowOff>
+      <xdr:rowOff>154509</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2757,10 +2992,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5394792" y="4901886"/>
-          <a:ext cx="1257888" cy="1006440"/>
-          <a:chOff x="0" y="-56388"/>
-          <a:chExt cx="1219786" cy="875164"/>
+          <a:off x="5375742" y="4775796"/>
+          <a:ext cx="1295990" cy="1208014"/>
+          <a:chOff x="0" y="-44005"/>
+          <a:chExt cx="1257889" cy="1050445"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2770,8 +3005,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1219788" cy="818777"/>
+            <a:off x="0" y="64846"/>
+            <a:ext cx="1257890" cy="941595"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2867,8 +3102,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="47577" y="-56388"/>
-            <a:ext cx="1145541" cy="864616"/>
+            <a:off x="30013" y="-44006"/>
+            <a:ext cx="1219424" cy="674750"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2886,7 +3121,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2944,15 +3179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>49237</xdr:colOff>
+      <xdr:colOff>49236</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>11642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>249979</xdr:colOff>
+      <xdr:colOff>244910</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>43009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2960,8 +3195,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="874737" y="1468967"/>
-        <a:ext cx="4442543" cy="2655360"/>
+        <a:off x="874736" y="1468967"/>
+        <a:ext cx="4437474" cy="2622168"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3119,9 +3354,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -3201,7 +3436,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3229,10 +3464,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3488,9 +3723,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -3778,7 +4013,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3806,10 +4041,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4060,182 +4295,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
       <c r="B13" t="s" s="3">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="10"/>
       <c r="B17" t="s" s="3">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" ht="13" customHeight="1">
+      <c r="A19" s="10"/>
       <c r="B19" t="s" s="3">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" ht="13" customHeight="1">
+      <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" ht="13" customHeight="1">
+      <c r="A21" s="10"/>
       <c r="B21" t="s" s="3">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" ht="13" customHeight="1">
+      <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>16</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" ht="13" customHeight="1">
+      <c r="A23" s="10"/>
       <c r="B23" t="s" s="3">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" ht="13" customHeight="1">
+      <c r="A24" s="10"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" ht="13" customHeight="1">
+      <c r="A25" s="10"/>
       <c r="B25" t="s" s="3">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="13" customHeight="1">
+      <c r="A26" s="20"/>
       <c r="B26" s="4"/>
       <c r="C26" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>149</v>
+        <v>20</v>
+      </c>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4"/>
+      <c r="C28" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Team'!R1C1" tooltip="" display="Team"/>
     <hyperlink ref="D12" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
     <hyperlink ref="D14" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
@@ -4245,7 +4590,21 @@
     <hyperlink ref="D22" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
     <hyperlink ref="D24" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
     <hyperlink ref="D26" location="'Stories'!R1C1" tooltip="" display="Stories"/>
+    <hyperlink ref="D12" location="'Team'!R1C1" tooltip="" display="Team"/>
+    <hyperlink ref="D14" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
+    <hyperlink ref="D16" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
+    <hyperlink ref="D18" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
+    <hyperlink ref="D20" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
+    <hyperlink ref="D22" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
+    <hyperlink ref="D24" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
+    <hyperlink ref="D26" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
+    <hyperlink ref="D28" location="'Stories'!R1C1" tooltip="" display="Stories"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4257,571 +4616,571 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="38" customWidth="1"/>
-    <col min="2" max="2" width="28.1719" style="38" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="38" customWidth="1"/>
-    <col min="4" max="5" width="11" style="38" customWidth="1"/>
-    <col min="6" max="256" width="11" style="38" customWidth="1"/>
+    <col min="1" max="1" width="11" style="51" customWidth="1"/>
+    <col min="2" max="2" width="28.1719" style="51" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="51" customWidth="1"/>
+    <col min="4" max="5" width="11" style="51" customWidth="1"/>
+    <col min="6" max="256" width="11" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s" s="32">
+      <c r="A1" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s" s="46">
+        <v>160</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s" s="52">
+        <v>163</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="s" s="26">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s" s="52">
+        <v>165</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s" s="52">
+        <v>167</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" ht="31.5" customHeight="1">
+      <c r="A5" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s" s="52">
+        <v>168</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="s" s="26">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s" s="52">
+        <v>170</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="s" s="26">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s" s="26">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s" s="52">
+        <v>173</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" ht="47.25" customHeight="1">
+      <c r="A8" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s" s="52">
+        <v>174</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s" s="26">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s" s="52">
+        <v>175</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s" s="26">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s" s="52">
+        <v>176</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="52">
+        <v>177</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" t="s" s="26">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s" s="26">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s" s="52">
+        <v>180</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" ht="47.25" customHeight="1">
+      <c r="A13" t="s" s="26">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s" s="26">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s" s="52">
+        <v>183</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" ht="63" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s" s="26">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s" s="52">
+        <v>186</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="31.5" customHeight="1">
+      <c r="A15" t="s" s="26">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s" s="26">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s" s="52">
+        <v>189</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" t="s" s="26">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s" s="26">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s" s="52">
+        <v>192</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" ht="31.5" customHeight="1">
+      <c r="A17" t="s" s="26">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s" s="26">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s" s="52">
+        <v>195</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" t="s" s="26">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s" s="26">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s" s="52">
+        <v>198</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" t="s" s="26">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s" s="26">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s" s="52">
+        <v>201</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" t="s" s="26">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s" s="26">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s" s="52">
+        <v>204</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" ht="31.5" customHeight="1">
+      <c r="A21" t="s" s="26">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s" s="26">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s" s="52">
+        <v>207</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" ht="31.5" customHeight="1">
+      <c r="A22" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s" s="26">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s" s="52">
+        <v>208</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" ht="31.5" customHeight="1">
+      <c r="A23" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s" s="26">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s" s="52">
+        <v>209</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" ht="31.5" customHeight="1">
+      <c r="A24" t="s" s="26">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s" s="26">
+        <v>211</v>
+      </c>
+      <c r="C24" t="s" s="52">
+        <v>212</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" ht="47.25" customHeight="1">
+      <c r="A25" t="s" s="26">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s" s="26">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s" s="52">
+        <v>215</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" ht="31.5" customHeight="1">
+      <c r="A26" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s" s="26">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s" s="52">
+        <v>216</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" ht="126" customHeight="1">
+      <c r="A27" t="s" s="26">
+        <v>217</v>
+      </c>
+      <c r="B27" t="s" s="26">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s" s="52">
+        <v>219</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s" s="26">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s" s="52">
+        <v>220</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" ht="31.5" customHeight="1">
+      <c r="A29" t="s" s="26">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s" s="26">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s" s="52">
+        <v>221</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" t="s" s="26">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s" s="26">
+        <v>223</v>
+      </c>
+      <c r="C30" t="s" s="52">
+        <v>224</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" t="s" s="26">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s" s="26">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s" s="52">
+        <v>225</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" ht="31.5" customHeight="1">
+      <c r="A32" t="s" s="26">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s" s="26">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s" s="52">
+        <v>226</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" t="s" s="26">
         <v>150</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="B33" t="s" s="26">
         <v>151</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>152</v>
-      </c>
-      <c r="C2" t="s" s="39">
+      <c r="C33" t="s" s="52">
+        <v>227</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" ht="31.5" customHeight="1">
+      <c r="A34" t="s" s="26">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s" s="26">
+        <v>229</v>
+      </c>
+      <c r="C34" t="s" s="52">
+        <v>230</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" ht="47.25" customHeight="1">
+      <c r="A35" t="s" s="26">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s" s="26">
+        <v>232</v>
+      </c>
+      <c r="C35" t="s" s="52">
+        <v>233</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" ht="31.5" customHeight="1">
+      <c r="A36" t="s" s="26">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s" s="26">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s" s="52">
+        <v>234</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" ht="31.5" customHeight="1">
+      <c r="A37" t="s" s="26">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s" s="26">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s" s="52">
+        <v>237</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" ht="31.5" customHeight="1">
+      <c r="A38" t="s" s="26">
         <v>153</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B38" t="s" s="26">
         <v>154</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s" s="39">
+      <c r="C38" t="s" s="52">
+        <v>238</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" ht="31.5" customHeight="1">
+      <c r="A39" t="s" s="26">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s" s="26">
+        <v>240</v>
+      </c>
+      <c r="C39" t="s" s="52">
+        <v>241</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" ht="31.5" customHeight="1">
+      <c r="A40" t="s" s="26">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s" s="26">
+        <v>243</v>
+      </c>
+      <c r="C40" t="s" s="52">
+        <v>244</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" ht="31.5" customHeight="1">
+      <c r="A41" t="s" s="26">
+        <v>245</v>
+      </c>
+      <c r="B41" t="s" s="26">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s" s="52">
+        <v>247</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" ht="31.5" customHeight="1">
+      <c r="A42" t="s" s="26">
         <v>155</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s" s="7">
+      <c r="B42" t="s" s="26">
         <v>156</v>
       </c>
-      <c r="C4" t="s" s="39">
-        <v>157</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s" s="39">
+      <c r="C42" t="s" s="52">
+        <v>248</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" ht="31.5" customHeight="1">
+      <c r="A43" t="s" s="26">
         <v>158</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="B43" t="s" s="26">
         <v>159</v>
       </c>
-      <c r="B6" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s" s="39">
-        <v>160</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s" s="39">
-        <v>161</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="47.25" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s" s="39">
-        <v>162</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s" s="39">
-        <v>163</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s" s="39">
-        <v>164</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s" s="39">
-        <v>165</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="B12" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s" s="39">
-        <v>168</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="47.25" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>170</v>
-      </c>
-      <c r="C13" t="s" s="39">
-        <v>171</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="63" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>173</v>
-      </c>
-      <c r="C14" t="s" s="39">
-        <v>174</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>175</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>176</v>
-      </c>
-      <c r="C15" t="s" s="39">
-        <v>177</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>178</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>179</v>
-      </c>
-      <c r="C16" t="s" s="39">
-        <v>180</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>181</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>182</v>
-      </c>
-      <c r="C17" t="s" s="39">
-        <v>183</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>184</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s" s="39">
-        <v>186</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>187</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s" s="39">
-        <v>189</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>190</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>191</v>
-      </c>
-      <c r="C20" t="s" s="39">
-        <v>192</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="31.5" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>193</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>194</v>
-      </c>
-      <c r="C21" t="s" s="39">
-        <v>195</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="31.5" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>196</v>
-      </c>
-      <c r="B22" t="s" s="7">
-        <v>197</v>
-      </c>
-      <c r="C22" t="s" s="39">
-        <v>198</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s" s="39">
-        <v>199</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="31.5" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>200</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>201</v>
-      </c>
-      <c r="C24" t="s" s="39">
-        <v>202</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="47.25" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>203</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>204</v>
-      </c>
-      <c r="C25" t="s" s="39">
-        <v>205</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="31.5" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s" s="39">
-        <v>206</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="126" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>207</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>208</v>
-      </c>
-      <c r="C27" t="s" s="39">
-        <v>209</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s" s="39">
-        <v>210</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="31.5" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s" s="39">
-        <v>211</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>212</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>213</v>
-      </c>
-      <c r="C30" t="s" s="39">
-        <v>214</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>134</v>
-      </c>
-      <c r="C31" t="s" s="39">
-        <v>215</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="31.5" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s" s="39">
-        <v>216</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="C33" t="s" s="39">
-        <v>217</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="31.5" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>218</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>219</v>
-      </c>
-      <c r="C34" t="s" s="39">
-        <v>220</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="47.25" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>221</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>222</v>
-      </c>
-      <c r="C35" t="s" s="39">
-        <v>223</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="31.5" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>131</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s" s="39">
-        <v>224</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="31.5" customHeight="1">
-      <c r="A37" t="s" s="7">
-        <v>225</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>226</v>
-      </c>
-      <c r="C37" t="s" s="39">
-        <v>227</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="31.5" customHeight="1">
-      <c r="A38" t="s" s="7">
-        <v>141</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>142</v>
-      </c>
-      <c r="C38" t="s" s="39">
-        <v>228</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="31.5" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>229</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>230</v>
-      </c>
-      <c r="C39" t="s" s="39">
-        <v>231</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="31.5" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>232</v>
-      </c>
-      <c r="B40" t="s" s="7">
-        <v>233</v>
-      </c>
-      <c r="C40" t="s" s="39">
-        <v>234</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="31.5" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>235</v>
-      </c>
-      <c r="B41" t="s" s="7">
-        <v>236</v>
-      </c>
-      <c r="C41" t="s" s="39">
-        <v>237</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="31.5" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="C42" t="s" s="39">
-        <v>238</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="31.5" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="C43" t="s" s="39">
-        <v>239</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="C43" t="s" s="52">
+        <v>249</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4840,128 +5199,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="6" customWidth="1"/>
-    <col min="6" max="256" width="11" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.85156" style="25" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="25" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="25" customWidth="1"/>
+    <col min="6" max="256" width="11" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
+      <c r="A1" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" t="s" s="7">
-        <v>14</v>
+      <c r="A3" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>31</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" t="s" s="26">
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" t="s" s="7">
-        <v>18</v>
+      <c r="A4" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>35</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" t="s" s="26">
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" t="s" s="7">
-        <v>22</v>
+      <c r="A5" t="s" s="26">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" t="s" s="26">
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" t="s" s="7">
-        <v>26</v>
+      <c r="A6" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="26">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="26">
+        <v>43</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" t="s" s="26">
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s" s="7">
-        <v>28</v>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" t="s" s="28">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s" s="26">
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4983,233 +5342,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.17188" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.67188" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.67188" style="10" customWidth="1"/>
-    <col min="6" max="256" width="11" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.17188" style="29" customWidth="1"/>
+    <col min="2" max="2" width="7.67188" style="29" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="29" customWidth="1"/>
+    <col min="4" max="4" width="6.67188" style="29" customWidth="1"/>
+    <col min="5" max="5" width="7.67188" style="29" customWidth="1"/>
+    <col min="6" max="256" width="11" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="7">
+      <c r="A1" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s" s="26">
         <v>33</v>
       </c>
-      <c r="E1" t="s" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="11">
+      <c r="E4" t="s" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s" s="7">
+      <c r="B5" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s" s="26">
         <v>41</v>
       </c>
-      <c r="C4" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>37</v>
+      <c r="E5" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>37</v>
+      <c r="B6" t="s" s="26">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>37</v>
+      <c r="B7" t="s" s="26">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="30">
         <v>2</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s" s="7">
-        <v>37</v>
+      <c r="B8" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s" s="26">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="30">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s" s="7">
-        <v>37</v>
+      <c r="B9" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s" s="7">
+      <c r="B10" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s" s="26">
         <v>54</v>
       </c>
-      <c r="D10" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s" s="7">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="30">
         <v>2</v>
       </c>
-      <c r="B11" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>37</v>
+      <c r="B11" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s" s="26">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="30">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s" s="7">
-        <v>37</v>
+      <c r="B12" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s" s="26">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="30">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s" s="7">
-        <v>37</v>
+      <c r="B13" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s" s="26">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s" s="26">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5229,503 +5588,503 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="12" customWidth="1"/>
-    <col min="7" max="8" width="11" style="12" customWidth="1"/>
-    <col min="9" max="256" width="11" style="12" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.8516" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.3516" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.85156" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="31" customWidth="1"/>
+    <col min="7" max="8" width="11" style="31" customWidth="1"/>
+    <col min="9" max="256" width="11" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" t="s" s="26">
+        <v>79</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" t="s" s="13">
-        <v>64</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" t="s" s="26">
+        <v>80</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" t="s" s="26">
+        <v>81</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="A5" t="s" s="26">
+        <v>82</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="13">
-        <v>67</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" t="s" s="26">
+        <v>83</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s" s="15">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s" s="15">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s" s="16">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="A14" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s" s="26">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s" s="32">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s" s="26">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s" s="32">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s" s="32">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s" s="26">
+        <v>90</v>
+      </c>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="13">
-        <v>75</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A15" t="s" s="26">
+        <v>91</v>
+      </c>
+      <c r="B15" s="33">
         <v>42527</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="34">
         <v>24</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18">
+      <c r="D15" s="35"/>
+      <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" t="s" s="13">
-        <v>76</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="A16" t="s" s="26">
+        <v>92</v>
+      </c>
+      <c r="B16" s="33">
         <v>42540</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="34">
         <v>18</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="38">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="34">
         <v>250</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="34">
         <v>120</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="37">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="13">
-        <v>77</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="A17" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="B17" s="33">
         <v>42554</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="34">
         <v>12</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="38">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="34">
         <v>480</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="39">
         <v>135</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="37">
         <f>(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>78</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="A18" t="s" s="26">
+        <v>94</v>
+      </c>
+      <c r="B18" s="33">
         <v>42568</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="34">
         <v>6</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="38">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="34">
         <v>740</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="39">
         <v>160</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="37">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s" s="13">
-        <v>79</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" t="s" s="26">
+        <v>95</v>
+      </c>
+      <c r="B19" s="33">
         <v>42582</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="34">
         <v>0</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="38">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="34">
         <v>1100</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="39">
         <v>145</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="37">
         <f>(E19-E18)/F19*60</f>
         <v>148.965517241379</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5745,291 +6104,291 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="26" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11" style="26" customWidth="1"/>
-    <col min="8" max="256" width="11" style="26" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="41" customWidth="1"/>
+    <col min="2" max="2" width="16.6719" style="41" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="41" customWidth="1"/>
+    <col min="4" max="4" width="7.17188" style="41" customWidth="1"/>
+    <col min="5" max="5" width="6.85156" style="41" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="41" customWidth="1"/>
+    <col min="7" max="7" width="11" style="41" customWidth="1"/>
+    <col min="8" max="256" width="11" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="13">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s" s="13">
-        <v>74</v>
-      </c>
-      <c r="G1" s="8"/>
+      <c r="A1" t="s" s="26">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>90</v>
+      </c>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="27">
+      <c r="A2" s="42">
         <v>43874</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="30">
         <v>36</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="30">
         <v>4</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="30">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="30">
         <v>0</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="27">
+      <c r="A3" s="42">
         <v>43889</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="30">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="30">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="30">
         <v>172</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="30">
         <v>135</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="42">
         <v>43920</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="30">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="30">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="30">
         <v>290</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="30">
         <v>340</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6049,468 +6408,468 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.67188" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="28" customWidth="1"/>
-    <col min="3" max="3" width="6.67188" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11" style="28" customWidth="1"/>
-    <col min="5" max="5" width="11.3516" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.67188" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.67188" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="28" customWidth="1"/>
-    <col min="10" max="256" width="11" style="28" customWidth="1"/>
+    <col min="1" max="1" width="7.67188" style="43" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="6.67188" style="43" customWidth="1"/>
+    <col min="4" max="4" width="11" style="43" customWidth="1"/>
+    <col min="5" max="5" width="11.3516" style="43" customWidth="1"/>
+    <col min="6" max="6" width="8.67188" style="43" customWidth="1"/>
+    <col min="7" max="7" width="9" style="43" customWidth="1"/>
+    <col min="8" max="8" width="7.67188" style="43" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="43" customWidth="1"/>
+    <col min="10" max="256" width="11" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s" s="9">
+      <c r="A1" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s" s="44">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s" s="45">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s" s="45">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s" s="45">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s" s="45">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E2" s="30">
+        <v>75</v>
+      </c>
+      <c r="F2" s="30">
+        <v>60</v>
+      </c>
+      <c r="G2" s="30">
+        <v>48</v>
+      </c>
+      <c r="H2" s="30">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="26">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s" s="46">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="46">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E6" s="30">
+        <v>60</v>
+      </c>
+      <c r="F6" s="30">
+        <v>60</v>
+      </c>
+      <c r="G6" s="30">
+        <v>60</v>
+      </c>
+      <c r="H6" s="30">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="26">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="46">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="26">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s" s="46">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="26">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s" s="26">
         <v>33</v>
       </c>
-      <c r="D1" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s" s="30">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s" s="30">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s" s="30">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s" s="30">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s" s="31">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D10" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E10" s="30">
+        <v>60</v>
+      </c>
+      <c r="F10" s="30">
+        <v>60</v>
+      </c>
+      <c r="G10" s="30">
+        <v>60</v>
+      </c>
+      <c r="H10" s="30">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s" s="46">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s" s="46">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s" s="26">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E14" s="30">
         <v>75</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F14" s="30">
         <v>60</v>
       </c>
-      <c r="G2" s="11">
-        <v>48</v>
-      </c>
-      <c r="H2" s="11">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s" s="13">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s" s="32">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s" s="32">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11">
-        <v>60</v>
-      </c>
-      <c r="F6" s="11">
-        <v>60</v>
-      </c>
-      <c r="G6" s="11">
-        <v>60</v>
-      </c>
-      <c r="H6" s="11">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s" s="13">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s" s="32">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s" s="32">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="G14" s="30">
+        <v>54</v>
+      </c>
+      <c r="H14" s="30">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="26">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s" s="46">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s" s="26">
         <v>41</v>
       </c>
-      <c r="B10" t="s" s="13">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E10" s="11">
-        <v>60</v>
-      </c>
-      <c r="F10" s="11">
-        <v>60</v>
-      </c>
-      <c r="G10" s="11">
-        <v>60</v>
-      </c>
-      <c r="H10" s="11">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s" s="13">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s" s="32">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s" s="32">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E14" s="11">
-        <v>75</v>
-      </c>
-      <c r="F14" s="11">
-        <v>60</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="D15" t="s" s="26">
         <v>54</v>
       </c>
-      <c r="H14" s="11">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s" s="13">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s" s="32">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="32">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="27"/>
+      <c r="A16" t="s" s="26">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s" s="46">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="14"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="14"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="14"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="14"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6529,642 +6888,642 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.6719" style="34" customWidth="1"/>
-    <col min="3" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="256" width="11" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11" style="48" customWidth="1"/>
+    <col min="2" max="2" width="27.6719" style="48" customWidth="1"/>
+    <col min="3" max="9" width="11" style="48" customWidth="1"/>
+    <col min="10" max="256" width="11" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s" s="9">
+      <c r="A1" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s" s="44">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s" s="45">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s" s="45">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s" s="45">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s" s="45">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E2" s="30">
+        <v>50</v>
+      </c>
+      <c r="F2" s="30">
+        <v>45</v>
+      </c>
+      <c r="G2" s="30">
+        <v>45</v>
+      </c>
+      <c r="H2" s="30">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="26">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s" s="46">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s" s="46">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="26">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E5" s="30">
+        <v>50</v>
+      </c>
+      <c r="F5" s="30">
+        <v>45</v>
+      </c>
+      <c r="G5" s="30">
+        <v>45</v>
+      </c>
+      <c r="H5" s="30">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="26">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s" s="46">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s" s="46">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s" s="26">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E9" s="30">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30">
+        <v>50</v>
+      </c>
+      <c r="G9" s="30">
+        <v>50</v>
+      </c>
+      <c r="H9" s="30">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="26">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s" s="46">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="26">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s" s="46">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s" s="26">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E12" s="30">
+        <v>50</v>
+      </c>
+      <c r="F12" s="30">
+        <v>40</v>
+      </c>
+      <c r="G12" s="30">
+        <v>40</v>
+      </c>
+      <c r="H12" s="30">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="26">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s" s="46">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s" s="46">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E18" s="30">
+        <v>30</v>
+      </c>
+      <c r="F18" s="30">
+        <v>20</v>
+      </c>
+      <c r="G18" s="30">
+        <v>30</v>
+      </c>
+      <c r="H18" s="30">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="s" s="26">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s" s="46">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="s" s="26">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s" s="46">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s" s="26">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E21" s="30">
+        <v>75</v>
+      </c>
+      <c r="F21" s="30">
+        <v>75</v>
+      </c>
+      <c r="G21" s="30">
+        <v>30</v>
+      </c>
+      <c r="H21" s="30">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" t="s" s="26">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s" s="46">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" t="s" s="26">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s" s="46">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s" s="26">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s" s="26">
         <v>33</v>
       </c>
-      <c r="D1" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s" s="30">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s" s="30">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s" s="30">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s" s="30">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s" s="30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="D26" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E26" s="30">
+        <v>50</v>
+      </c>
+      <c r="F26" s="30">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="G26" s="30">
         <v>50</v>
       </c>
-      <c r="F2" s="11">
+      <c r="H26" s="30">
         <v>45</v>
       </c>
-      <c r="G2" s="11">
-        <v>45</v>
-      </c>
-      <c r="H2" s="11">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s" s="32">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="I26" t="s" s="26">
         <v>101</v>
       </c>
-      <c r="B4" t="s" s="32">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E5" s="11">
-        <v>50</v>
-      </c>
-      <c r="F5" s="11">
-        <v>45</v>
-      </c>
-      <c r="G5" s="11">
-        <v>45</v>
-      </c>
-      <c r="H5" s="11">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s" s="32">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s" s="32">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E9" s="11">
-        <v>60</v>
-      </c>
-      <c r="F9" s="11">
-        <v>50</v>
-      </c>
-      <c r="G9" s="11">
-        <v>50</v>
-      </c>
-      <c r="H9" s="11">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s" s="32">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s" s="32">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E12" s="11">
-        <v>50</v>
-      </c>
-      <c r="F12" s="11">
-        <v>40</v>
-      </c>
-      <c r="G12" s="11">
-        <v>40</v>
-      </c>
-      <c r="H12" s="11">
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="s" s="26">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s" s="26">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="s" s="26">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s" s="26">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s" s="26">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E29" s="30">
         <v>30</v>
       </c>
-      <c r="I12" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s" s="32">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s" s="32">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s" s="7">
+      <c r="F29" s="30">
+        <v>30</v>
+      </c>
+      <c r="G29" s="30">
+        <v>30</v>
+      </c>
+      <c r="H29" s="30">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="s" s="26">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s" s="26">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s" s="26">
         <v>54</v>
       </c>
-      <c r="C18" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E18" s="11">
-        <v>30</v>
-      </c>
-      <c r="F18" s="11">
-        <v>20</v>
-      </c>
-      <c r="G18" s="11">
-        <v>30</v>
-      </c>
-      <c r="H18" s="11">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>114</v>
-      </c>
-      <c r="B19" t="s" s="32">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>115</v>
-      </c>
-      <c r="B20" t="s" s="32">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11">
-        <v>75</v>
-      </c>
-      <c r="F21" s="11">
-        <v>75</v>
-      </c>
-      <c r="G21" s="11">
-        <v>30</v>
-      </c>
-      <c r="H21" s="11">
-        <v>45</v>
-      </c>
-      <c r="I21" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="B22" t="s" s="32">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" ht="25.5" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>118</v>
-      </c>
-      <c r="B23" t="s" s="32">
-        <v>119</v>
-      </c>
-      <c r="C23" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E26" s="11">
-        <v>50</v>
-      </c>
-      <c r="F26" s="11">
-        <v>45</v>
-      </c>
-      <c r="G26" s="11">
-        <v>50</v>
-      </c>
-      <c r="H26" s="11">
-        <v>45</v>
-      </c>
-      <c r="I26" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>120</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>121</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="C28" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E29" s="11">
-        <v>30</v>
-      </c>
-      <c r="F29" s="11">
-        <v>30</v>
-      </c>
-      <c r="G29" s="11">
-        <v>30</v>
-      </c>
-      <c r="H29" s="11">
-        <v>30</v>
-      </c>
-      <c r="I29" t="s" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" t="s" s="26">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s" s="26">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7183,247 +7542,247 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="36" customWidth="1"/>
-    <col min="2" max="2" width="23.6719" style="36" customWidth="1"/>
-    <col min="3" max="9" width="11" style="36" customWidth="1"/>
-    <col min="10" max="256" width="11" style="36" customWidth="1"/>
+    <col min="1" max="1" width="11" style="49" customWidth="1"/>
+    <col min="2" max="2" width="23.6719" style="49" customWidth="1"/>
+    <col min="3" max="9" width="11" style="49" customWidth="1"/>
+    <col min="10" max="256" width="11" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s" s="30">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s" s="30">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s" s="30">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s" s="30">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s" s="30">
-        <v>86</v>
+      <c r="A1" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s" s="44">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s" s="45">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s" s="45">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s" s="45">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s" s="45">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s" s="45">
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>127</v>
-      </c>
-      <c r="B2" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="A2" t="s" s="26">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>142</v>
+      </c>
+      <c r="E2" s="30">
         <v>45</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="30">
         <v>45</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="A3" t="s" s="26">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s" s="26">
+        <v>142</v>
+      </c>
+      <c r="E3" s="30">
         <v>30</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="30">
         <v>45</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="A4" t="s" s="26">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E4" s="30">
         <v>40</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="30">
         <v>50</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="30">
         <v>40</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="30">
         <v>50</v>
       </c>
-      <c r="I4" t="s" s="7">
-        <v>87</v>
+      <c r="I4" t="s" s="26">
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="A5" t="s" s="26">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="E5" s="30">
         <v>25</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="30">
         <v>40</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="30">
         <v>25</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="30">
         <v>40</v>
       </c>
-      <c r="I5" t="s" s="7">
-        <v>87</v>
+      <c r="I5" t="s" s="26">
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>140</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="A6" t="s" s="26">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s" s="26">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s" s="26">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s" s="26">
+        <v>142</v>
+      </c>
+      <c r="E6" s="30">
         <v>30</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="30">
         <v>20</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s" s="7">
+      <c r="A7" t="s" s="26">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s" s="26">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s" s="26">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s" s="26">
         <v>142</v>
       </c>
-      <c r="C7" t="s" s="7">
-        <v>140</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="E7" s="30">
         <v>30</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="30">
         <v>35</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>143</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>145</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="A8" t="s" s="26">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s" s="26">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s" s="26">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s" s="26">
+        <v>142</v>
+      </c>
+      <c r="E8" s="30">
         <v>40</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="30">
         <v>40</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>145</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="A9" t="s" s="26">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s" s="26">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s" s="26">
+        <v>142</v>
+      </c>
+      <c r="E9" s="30">
         <v>40</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="30">
         <v>30</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7442,137 +7801,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="11" style="37" customWidth="1"/>
-    <col min="10" max="256" width="11" style="37" customWidth="1"/>
+    <col min="1" max="9" width="11" style="50" customWidth="1"/>
+    <col min="10" max="256" width="11" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s" s="30">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s" s="30">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s" s="30">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s" s="30">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s" s="30">
-        <v>86</v>
+      <c r="A1" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s" s="44">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s" s="45">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s" s="45">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s" s="45">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s" s="45">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s" s="45">
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/Team01Report-Sprint3.xlsx
+++ b/docs/Team01Report-Sprint3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="688" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="237">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>Correct Gender Role</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1106,11 +1109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511752864"/>
-        <c:axId val="511756784"/>
+        <c:axId val="427598984"/>
+        <c:axId val="427601336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511752864"/>
+        <c:axId val="427598984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,14 +1123,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511756784"/>
+        <c:crossAx val="427601336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511756784"/>
+        <c:axId val="427601336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511752864"/>
+        <c:crossAx val="427598984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1231,11 +1234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511753648"/>
-        <c:axId val="511759528"/>
+        <c:axId val="475010240"/>
+        <c:axId val="475006320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511753648"/>
+        <c:axId val="475010240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,14 +1248,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511759528"/>
+        <c:crossAx val="475006320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511759528"/>
+        <c:axId val="475006320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511753648"/>
+        <c:crossAx val="475010240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1300,7 +1303,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1341,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1416,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1481,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1550,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1620,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1689,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1759,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2210,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3188,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3359,7 +3362,7 @@
         <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -3374,7 +3377,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,7 +3406,7 @@
         <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -3418,7 +3421,7 @@
         <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -3433,7 +3436,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3462,7 +3465,7 @@
         <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="I14" s="7"/>
     </row>
@@ -3618,7 +3621,9 @@
       <c r="F26">
         <v>45</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3639,7 +3644,9 @@
       <c r="F27">
         <v>30</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>236</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
